--- a/Projects/Defect Report Website/Defect_Management_Report-2.xlsx
+++ b/Projects/Defect Report Website/Defect_Management_Report-2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhruv\Documents\GitHub\Dhruvin_Testing\Assignment\Module_2\Defect Report Website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhruv\Documents\GitHub\Dhruvin_Testing\Projects\Defect Report Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A536C2D4-BA8F-4DA2-8D35-BA04CDD718AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0076A70C-7D6A-4406-8CD6-92A1ABA23442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2765" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2772" uniqueCount="304">
   <si>
     <t>Testcase Id</t>
   </si>
@@ -1141,12 +1141,30 @@
   <si>
     <t>Critical Functionality</t>
   </si>
+  <si>
+    <t>https://i.ibb.co/TD3SctY/Untitled.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/kJnsK9R/Untitled.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Y3RKSHZ/Untitled.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/GJ8PBsq/Untitled.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/zr6LRh1/Untitled.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/p0MH5gM/Untitled.png</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1208,6 +1226,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1327,10 +1353,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1387,14 +1414,18 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3130,17 +3161,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -5057,17 +5088,17 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="26" t="s">
+      <c r="A70" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
     </row>
     <row r="71" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
@@ -5157,17 +5188,17 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="26" t="s">
+      <c r="A76" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="26"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
     </row>
     <row r="77" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
@@ -6272,17 +6303,17 @@
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" s="26" t="s">
+      <c r="A117" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="B117" s="26"/>
-      <c r="C117" s="26"/>
-      <c r="D117" s="26"/>
-      <c r="E117" s="26"/>
-      <c r="F117" s="26"/>
-      <c r="G117" s="26"/>
-      <c r="H117" s="26"/>
-      <c r="I117" s="26"/>
+      <c r="B117" s="27"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="27"/>
+      <c r="E117" s="27"/>
+      <c r="F117" s="27"/>
+      <c r="G117" s="27"/>
+      <c r="H117" s="27"/>
+      <c r="I117" s="27"/>
     </row>
     <row r="118" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
@@ -8199,17 +8230,17 @@
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A186" s="27" t="s">
+      <c r="A186" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="B186" s="27"/>
-      <c r="C186" s="27"/>
-      <c r="D186" s="27"/>
-      <c r="E186" s="27"/>
-      <c r="F186" s="27"/>
-      <c r="G186" s="27"/>
-      <c r="H186" s="27"/>
-      <c r="I186" s="27"/>
+      <c r="B186" s="26"/>
+      <c r="C186" s="26"/>
+      <c r="D186" s="26"/>
+      <c r="E186" s="26"/>
+      <c r="F186" s="26"/>
+      <c r="G186" s="26"/>
+      <c r="H186" s="26"/>
+      <c r="I186" s="26"/>
     </row>
     <row r="187" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="8" t="s">
@@ -9372,17 +9403,17 @@
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A229" s="27" t="s">
+      <c r="A229" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="B229" s="27"/>
-      <c r="C229" s="27"/>
-      <c r="D229" s="27"/>
-      <c r="E229" s="27"/>
-      <c r="F229" s="27"/>
-      <c r="G229" s="27"/>
-      <c r="H229" s="27"/>
-      <c r="I229" s="27"/>
+      <c r="B229" s="26"/>
+      <c r="C229" s="26"/>
+      <c r="D229" s="26"/>
+      <c r="E229" s="26"/>
+      <c r="F229" s="26"/>
+      <c r="G229" s="26"/>
+      <c r="H229" s="26"/>
+      <c r="I229" s="26"/>
     </row>
     <row r="230" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A230" s="8" t="s">
@@ -11420,7 +11451,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>22</v>
       </c>
@@ -11443,7 +11474,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>23</v>
       </c>
@@ -11466,7 +11497,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>24</v>
       </c>
@@ -11489,7 +11520,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>25</v>
       </c>
@@ -11512,7 +11543,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>26</v>
       </c>
@@ -11535,7 +11566,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>27</v>
       </c>
@@ -11558,7 +11589,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>28</v>
       </c>
@@ -11581,7 +11612,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="288" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>29</v>
       </c>
@@ -11604,7 +11635,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="288" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>30</v>
       </c>
@@ -11627,7 +11658,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>31</v>
       </c>
@@ -11650,7 +11681,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>32</v>
       </c>
@@ -11673,7 +11704,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>33</v>
       </c>
@@ -11696,7 +11727,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>34</v>
       </c>
@@ -11719,7 +11750,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>35</v>
       </c>
@@ -11742,7 +11773,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>36</v>
       </c>
@@ -11765,7 +11796,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>37</v>
       </c>
@@ -11788,7 +11819,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>38</v>
       </c>
@@ -11811,7 +11842,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>62</v>
       </c>
@@ -11834,7 +11865,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>63</v>
       </c>
@@ -11857,7 +11888,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>64</v>
       </c>
@@ -11880,7 +11911,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="216" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>65</v>
       </c>
@@ -11912,12 +11943,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DDBBF9-6964-487C-806F-2332175200FE}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="8.88671875" style="4"/>
     <col min="3" max="3" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" customWidth="1"/>
     <col min="5" max="5" width="16.77734375" customWidth="1"/>
@@ -11972,8 +12004,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -12003,14 +12037,18 @@
       <c r="K2" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="28" t="s">
+        <v>298</v>
+      </c>
       <c r="M2" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -12040,14 +12078,18 @@
       <c r="K3" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="28" t="s">
+        <v>299</v>
+      </c>
       <c r="M3" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
         <v>4</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -12077,14 +12119,18 @@
       <c r="K4" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="28" t="s">
+        <v>300</v>
+      </c>
       <c r="M4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
         <v>5</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -12114,14 +12160,18 @@
       <c r="K5" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="28" t="s">
+        <v>301</v>
+      </c>
       <c r="M5" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -12151,14 +12201,18 @@
       <c r="K6" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="28" t="s">
+        <v>302</v>
+      </c>
       <c r="M6" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
         <v>7</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -12188,14 +12242,18 @@
       <c r="K7" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="L7" s="7"/>
+      <c r="L7" s="28" t="s">
+        <v>303</v>
+      </c>
       <c r="M7" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
         <v>8</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -12225,14 +12283,18 @@
       <c r="K8" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="L8" s="7"/>
+      <c r="L8" s="28" t="s">
+        <v>303</v>
+      </c>
       <c r="M8" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
         <v>9</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -12268,8 +12330,10 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
         <v>10</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -12305,8 +12369,10 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
         <v>11</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -12342,8 +12408,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
         <v>12</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -12379,8 +12447,10 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
         <v>13</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -12416,8 +12486,10 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
         <v>14</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -12453,8 +12525,10 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
         <v>15</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -12490,8 +12564,10 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
         <v>16</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -12527,8 +12603,10 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
         <v>18</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -12564,8 +12642,10 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7">
         <v>19</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -12601,8 +12681,10 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5">
         <v>20</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -12638,8 +12720,10 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="216" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
         <v>39</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -12675,8 +12759,10 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="216" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5">
         <v>40</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -12712,8 +12798,10 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="216" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5">
         <v>41</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -12749,8 +12837,10 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="216" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5">
         <v>42</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -12786,8 +12876,10 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="216" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5">
         <v>43</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -12823,8 +12915,10 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="216" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5">
         <v>44</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -12860,8 +12954,10 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="216" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5">
         <v>45</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -12897,8 +12993,10 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="216" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5">
         <v>46</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -12934,8 +13032,10 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="216" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5">
         <v>47</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -12971,8 +13071,10 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="216" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5">
         <v>48</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -13008,8 +13110,10 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="216" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5">
         <v>49</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -13045,8 +13149,10 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="216" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5">
         <v>50</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -13082,8 +13188,10 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="216" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5">
         <v>51</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -13119,8 +13227,10 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="216" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5">
         <v>52</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -13156,8 +13266,10 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="216" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5">
         <v>53</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -13193,8 +13305,10 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="216" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5">
         <v>54</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -13230,8 +13344,10 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="216" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5">
         <v>55</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -13267,8 +13383,10 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="216" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5">
         <v>56</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -13304,8 +13422,10 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="216" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5">
         <v>57</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -13341,8 +13461,10 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="216" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5">
         <v>58</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -13378,8 +13500,10 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="216" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5">
         <v>59</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -13415,8 +13539,10 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="216" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5">
         <v>60</v>
       </c>
       <c r="C41" s="7" t="s">
@@ -13452,8 +13578,10 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5">
         <v>61</v>
       </c>
       <c r="C42" s="5" t="s">
@@ -13489,6 +13617,15 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{CF80E7C8-75ED-4BA6-868E-7908EDCC29D8}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{C37CCF9A-820E-4F13-B8A6-5DD481469C54}"/>
+    <hyperlink ref="L4" r:id="rId3" xr:uid="{213B0D5A-F4FB-4776-88CB-A5A9099903D6}"/>
+    <hyperlink ref="L5" r:id="rId4" xr:uid="{BB19D103-90A5-4980-B82D-E0A5356563A0}"/>
+    <hyperlink ref="L6" r:id="rId5" xr:uid="{1E79F8F4-FEC9-41C7-AE2F-9907A8FA66C1}"/>
+    <hyperlink ref="L7" r:id="rId6" xr:uid="{D38C43A4-26D2-497F-9F22-EB2B35F8A5DC}"/>
+    <hyperlink ref="L8" r:id="rId7" xr:uid="{8AEAC13A-37E8-49FC-BCB9-613F3FE240CE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Projects/Defect Report Website/Defect_Management_Report-2.xlsx
+++ b/Projects/Defect Report Website/Defect_Management_Report-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhruv\Documents\GitHub\Dhruvin_Testing\Projects\Defect Report Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0076A70C-7D6A-4406-8CD6-92A1ABA23442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513BF9B5-03F6-43CF-81B8-9FDC6C936FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2772" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2783" uniqueCount="315">
   <si>
     <t>Testcase Id</t>
   </si>
@@ -1158,6 +1158,39 @@
   </si>
   <si>
     <t>https://i.ibb.co/p0MH5gM/Untitled.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/p6HLxBc/Untitled.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/SKRyYfv/Untitled.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/FWp6ktm/Untitled.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/mJGzwrh/Untitled.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/VBcjCsP/Untitled.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/zhFwMxT/Untitled.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/rZ1kckD/Untitled.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/zPc90mP/Untitled.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/7X71n8c/Untitled.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/0Yw3vSp/Untitled.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/tMx1MT2/Untitled.png</t>
   </si>
 </sst>
 </file>
@@ -1396,6 +1429,9 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1419,9 +1455,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1783,11 +1816,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -2063,11 +2096,11 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
@@ -2081,11 +2114,11 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
@@ -2330,11 +2363,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="B53" s="21"/>
-      <c r="C53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="23"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
@@ -2599,11 +2632,11 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="20" t="s">
+      <c r="A78" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="B78" s="21"/>
-      <c r="C78" s="22"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="23"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
@@ -2859,11 +2892,11 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="20" t="s">
+      <c r="A102" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="B102" s="21"/>
-      <c r="C102" s="22"/>
+      <c r="B102" s="22"/>
+      <c r="C102" s="23"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
@@ -3161,17 +3194,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -5088,17 +5121,17 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="27" t="s">
+      <c r="A70" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
     </row>
     <row r="71" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
@@ -5188,17 +5221,17 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="27" t="s">
+      <c r="A76" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="28"/>
     </row>
     <row r="77" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
@@ -6303,17 +6336,17 @@
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" s="27" t="s">
+      <c r="A117" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="B117" s="27"/>
-      <c r="C117" s="27"/>
-      <c r="D117" s="27"/>
-      <c r="E117" s="27"/>
-      <c r="F117" s="27"/>
-      <c r="G117" s="27"/>
-      <c r="H117" s="27"/>
-      <c r="I117" s="27"/>
+      <c r="B117" s="28"/>
+      <c r="C117" s="28"/>
+      <c r="D117" s="28"/>
+      <c r="E117" s="28"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="28"/>
+      <c r="H117" s="28"/>
+      <c r="I117" s="28"/>
     </row>
     <row r="118" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
@@ -8230,17 +8263,17 @@
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A186" s="26" t="s">
+      <c r="A186" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="B186" s="26"/>
-      <c r="C186" s="26"/>
-      <c r="D186" s="26"/>
-      <c r="E186" s="26"/>
-      <c r="F186" s="26"/>
-      <c r="G186" s="26"/>
-      <c r="H186" s="26"/>
-      <c r="I186" s="26"/>
+      <c r="B186" s="27"/>
+      <c r="C186" s="27"/>
+      <c r="D186" s="27"/>
+      <c r="E186" s="27"/>
+      <c r="F186" s="27"/>
+      <c r="G186" s="27"/>
+      <c r="H186" s="27"/>
+      <c r="I186" s="27"/>
     </row>
     <row r="187" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="8" t="s">
@@ -9403,17 +9436,17 @@
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A229" s="26" t="s">
+      <c r="A229" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="B229" s="26"/>
-      <c r="C229" s="26"/>
-      <c r="D229" s="26"/>
-      <c r="E229" s="26"/>
-      <c r="F229" s="26"/>
-      <c r="G229" s="26"/>
-      <c r="H229" s="26"/>
-      <c r="I229" s="26"/>
+      <c r="B229" s="27"/>
+      <c r="C229" s="27"/>
+      <c r="D229" s="27"/>
+      <c r="E229" s="27"/>
+      <c r="F229" s="27"/>
+      <c r="G229" s="27"/>
+      <c r="H229" s="27"/>
+      <c r="I229" s="27"/>
     </row>
     <row r="230" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A230" s="8" t="s">
@@ -11943,8 +11976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DDBBF9-6964-487C-806F-2332175200FE}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12037,7 +12070,7 @@
       <c r="K2" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="20" t="s">
         <v>298</v>
       </c>
       <c r="M2" s="5" t="s">
@@ -12078,7 +12111,7 @@
       <c r="K3" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="20" t="s">
         <v>299</v>
       </c>
       <c r="M3" s="5" t="s">
@@ -12119,7 +12152,7 @@
       <c r="K4" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="20" t="s">
         <v>300</v>
       </c>
       <c r="M4" s="5" t="s">
@@ -12160,7 +12193,7 @@
       <c r="K5" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="20" t="s">
         <v>301</v>
       </c>
       <c r="M5" s="5" t="s">
@@ -12201,7 +12234,7 @@
       <c r="K6" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="L6" s="28" t="s">
+      <c r="L6" s="20" t="s">
         <v>302</v>
       </c>
       <c r="M6" s="5" t="s">
@@ -12242,7 +12275,7 @@
       <c r="K7" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="L7" s="28" t="s">
+      <c r="L7" s="20" t="s">
         <v>303</v>
       </c>
       <c r="M7" s="5" t="s">
@@ -12283,7 +12316,7 @@
       <c r="K8" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="L8" s="28" t="s">
+      <c r="L8" s="20" t="s">
         <v>303</v>
       </c>
       <c r="M8" s="5" t="s">
@@ -12324,7 +12357,9 @@
       <c r="K9" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="L9" s="7"/>
+      <c r="L9" s="20" t="s">
+        <v>304</v>
+      </c>
       <c r="M9" s="5" t="s">
         <v>21</v>
       </c>
@@ -12363,7 +12398,9 @@
       <c r="K10" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="L10" s="7"/>
+      <c r="L10" s="20" t="s">
+        <v>305</v>
+      </c>
       <c r="M10" s="5" t="s">
         <v>21</v>
       </c>
@@ -12402,7 +12439,9 @@
       <c r="K11" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="L11" s="7"/>
+      <c r="L11" s="20" t="s">
+        <v>306</v>
+      </c>
       <c r="M11" s="5" t="s">
         <v>21</v>
       </c>
@@ -12441,7 +12480,9 @@
       <c r="K12" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="L12" s="7"/>
+      <c r="L12" s="20" t="s">
+        <v>307</v>
+      </c>
       <c r="M12" s="5" t="s">
         <v>21</v>
       </c>
@@ -12480,7 +12521,9 @@
       <c r="K13" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="L13" s="7"/>
+      <c r="L13" s="20" t="s">
+        <v>308</v>
+      </c>
       <c r="M13" s="5" t="s">
         <v>21</v>
       </c>
@@ -12519,7 +12562,9 @@
       <c r="K14" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="20" t="s">
+        <v>309</v>
+      </c>
       <c r="M14" s="5" t="s">
         <v>21</v>
       </c>
@@ -12558,7 +12603,9 @@
       <c r="K15" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="20" t="s">
+        <v>310</v>
+      </c>
       <c r="M15" s="5" t="s">
         <v>21</v>
       </c>
@@ -12597,7 +12644,9 @@
       <c r="K16" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="20" t="s">
+        <v>311</v>
+      </c>
       <c r="M16" s="5" t="s">
         <v>21</v>
       </c>
@@ -12636,7 +12685,9 @@
       <c r="K17" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="20" t="s">
+        <v>312</v>
+      </c>
       <c r="M17" s="5" t="s">
         <v>21</v>
       </c>
@@ -12675,7 +12726,9 @@
       <c r="K18" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="L18" s="7"/>
+      <c r="L18" s="20" t="s">
+        <v>313</v>
+      </c>
       <c r="M18" s="5" t="s">
         <v>21</v>
       </c>
@@ -12714,7 +12767,9 @@
       <c r="K19" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="L19" s="7"/>
+      <c r="L19" s="20" t="s">
+        <v>314</v>
+      </c>
       <c r="M19" s="5" t="s">
         <v>21</v>
       </c>
@@ -13625,6 +13680,17 @@
     <hyperlink ref="L6" r:id="rId5" xr:uid="{1E79F8F4-FEC9-41C7-AE2F-9907A8FA66C1}"/>
     <hyperlink ref="L7" r:id="rId6" xr:uid="{D38C43A4-26D2-497F-9F22-EB2B35F8A5DC}"/>
     <hyperlink ref="L8" r:id="rId7" xr:uid="{8AEAC13A-37E8-49FC-BCB9-613F3FE240CE}"/>
+    <hyperlink ref="L9" r:id="rId8" xr:uid="{B3A75E16-7E8D-4E5F-A77A-F0F2E05A7BD7}"/>
+    <hyperlink ref="L10" r:id="rId9" xr:uid="{555D506D-D499-4A61-9106-A49EB048D80B}"/>
+    <hyperlink ref="L11" r:id="rId10" xr:uid="{D41C210E-654E-4042-84FA-C3AB29B6A69A}"/>
+    <hyperlink ref="L12" r:id="rId11" xr:uid="{25497000-9728-4CE5-8413-68455598A956}"/>
+    <hyperlink ref="L13" r:id="rId12" xr:uid="{6436E880-861E-4D30-9BD6-C805C6FAFDDF}"/>
+    <hyperlink ref="L14" r:id="rId13" xr:uid="{09F536B8-5F0C-4FCA-A421-F3B53D10B367}"/>
+    <hyperlink ref="L15" r:id="rId14" xr:uid="{0205AE8A-809C-4364-891D-580809924F7F}"/>
+    <hyperlink ref="L16" r:id="rId15" xr:uid="{5610BAAC-00DB-45C1-8B4C-3DD79128EC04}"/>
+    <hyperlink ref="L17" r:id="rId16" xr:uid="{874FB87C-E1F0-4ED9-AE86-705521AED650}"/>
+    <hyperlink ref="L18" r:id="rId17" xr:uid="{E6F8C445-7210-46DC-8F0F-8823EC763432}"/>
+    <hyperlink ref="L19" r:id="rId18" xr:uid="{B1F22B1F-3A95-46C0-9B78-EF64F85FE090}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
